--- a/data/DataForPlots.xlsx
+++ b/data/DataForPlots.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mikew\Desktop\University\TilburgUniversity\Master\professional_business_analytics_skills\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC26C391-AF2C-4250-ABBE-ED17DC63FDBE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F74BC31B-DAF6-4F6C-8DE3-7108FCC65025}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{AE69AD1E-B220-6F43-998E-CA89110AFDF1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{AE69AD1E-B220-6F43-998E-CA89110AFDF1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -848,67 +848,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-GB" b="1"/>
-              <a:t>Revenue per product</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-GB" b="1" baseline="0"/>
-              <a:t> type</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-GB" b="1"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-NL"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -1289,7 +1229,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="150"/>
+        <c:gapWidth val="66"/>
         <c:overlap val="100"/>
         <c:axId val="1492209936"/>
         <c:axId val="1395793904"/>
@@ -1301,69 +1241,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t>Year</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.50164344639394298"/>
-              <c:y val="0.90434666217115678"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-NL"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1386,7 +1263,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1436,7 +1313,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1449,7 +1326,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB" sz="1100"/>
+                  <a:rPr lang="en-GB" sz="1800"/>
                   <a:t>Revenue (billion USD)</a:t>
                 </a:r>
               </a:p>
@@ -1476,7 +1353,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1508,7 +1385,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1541,9 +1418,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.39889301496802559"/>
+          <c:x val="0.33229423022713533"/>
           <c:y val="0.94184267163963942"/>
-          <c:w val="0.27710497167771059"/>
+          <c:w val="0.36255249315979854"/>
           <c:h val="4.6072738131846043E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -1560,7 +1437,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -4726,8 +4603,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79210790-2DEC-EF4B-9F03-3DEE37D1420E}">
   <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S36" sqref="S36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -5166,7 +5043,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95D720CB-15A0-034E-84FD-78B55BF761D0}">
   <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
